--- a/IntroVar/Inflacion_depreciacion_enero2003_junio2022.xlsx
+++ b/IntroVar/Inflacion_depreciacion_enero2003_junio2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggarci24\OneDrive - Universidad EAFIT\EAFIT\Cursos EAFIT\Econometria II\R\IntroVar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/ggarci24_eafit_edu_co/Documents/EAFIT/Cursos EAFIT/Econometria II/R/IntroVar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{70B45945-828E-4A8E-B23B-0A184197BC83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1096E64C-532D-482D-B0BB-FA23371356D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{AFD4892E-CC18-4768-8F38-06DE321EC051}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{907F0312-39E0-497F-AA54-DA46B826AC53}"/>
   </bookViews>
@@ -1144,12 +1144,12 @@
   <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1172,13 +1172,13 @@
         <v>7.39</v>
       </c>
       <c r="C2" s="3">
-        <v>0.26367360086361885</v>
+        <v>26.367360086361884</v>
       </c>
       <c r="D2" s="4">
         <v>2.7574563871693902</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1186,13 +1186,13 @@
         <v>7.24</v>
       </c>
       <c r="C3" s="3">
-        <v>0.27799379765833487</v>
+        <v>27.799379765833486</v>
       </c>
       <c r="D3" s="4">
         <v>3.1460674157303337</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1200,13 +1200,13 @@
         <v>7.6</v>
       </c>
       <c r="C4" s="3">
-        <v>0.30216039467140793</v>
+        <v>30.216039467140792</v>
       </c>
       <c r="D4" s="4">
         <v>3.0252100840336165</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1214,13 +1214,13 @@
         <v>7.85</v>
       </c>
       <c r="C5" s="3">
-        <v>0.29435580005121459</v>
+        <v>29.435580005121459</v>
       </c>
       <c r="D5" s="4">
         <v>2.1751254880089106</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -1228,13 +1228,13 @@
         <v>7.73</v>
       </c>
       <c r="C6" s="3">
-        <v>0.23030091583078932</v>
+        <v>23.030091583078931</v>
       </c>
       <c r="D6" s="4">
         <v>1.8941504178273012</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1242,13 +1242,13 @@
         <v>7.21</v>
       </c>
       <c r="C7" s="3">
-        <v>0.19099496859593446</v>
+        <v>19.099496859593444</v>
       </c>
       <c r="D7" s="4">
         <v>1.9487750556792873</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -1256,13 +1256,13 @@
         <v>7.04</v>
       </c>
       <c r="C8" s="3">
-        <v>0.14235935703801542</v>
+        <v>14.235935703801541</v>
       </c>
       <c r="D8" s="4">
         <v>2.0555555555555491</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1270,13 +1270,13 @@
         <v>7.26</v>
       </c>
       <c r="C9" s="3">
-        <v>8.68555733021735E-2</v>
+        <v>8.6855573302173497</v>
       </c>
       <c r="D9" s="4">
         <v>2.21606648199446</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1284,13 +1284,13 @@
         <v>7.11</v>
       </c>
       <c r="C10" s="3">
-        <v>3.0492943103429461E-2</v>
+        <v>3.0492943103429462</v>
       </c>
       <c r="D10" s="4">
         <v>2.378318584070787</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
@@ -1298,13 +1298,13 @@
         <v>6.58</v>
       </c>
       <c r="C11" s="3">
-        <v>1.4539557382321538E-3</v>
+        <v>0.14539557382321538</v>
       </c>
       <c r="D11" s="4">
         <v>2.0419426048565215</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1312,13 +1312,13 @@
         <v>6.13</v>
       </c>
       <c r="C12" s="3">
-        <v>4.3497892835641268E-2</v>
+        <v>4.3497892835641272</v>
       </c>
       <c r="D12" s="4">
         <v>1.9283746556473829</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -1326,13 +1326,13 @@
         <v>6.49</v>
       </c>
       <c r="C13" s="3">
-        <v>1.6558885533588155E-3</v>
+        <v>0.16558885533588155</v>
       </c>
       <c r="D13" s="4">
         <v>2.0352035203520287</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
@@ -1340,13 +1340,13 @@
         <v>6.19</v>
       </c>
       <c r="C14" s="3">
-        <v>-5.3733142729198678E-2</v>
+        <v>-5.3733142729198677</v>
       </c>
       <c r="D14" s="4">
         <v>2.0262869660460114</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -1354,13 +1354,13 @@
         <v>6.28</v>
       </c>
       <c r="C15" s="3">
-        <v>-7.7975876213296533E-2</v>
+        <v>-7.7975876213296536</v>
       </c>
       <c r="D15" s="4">
         <v>1.6884531590413914</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
@@ -1368,13 +1368,13 @@
         <v>6.21</v>
       </c>
       <c r="C16" s="3">
-        <v>-9.7801180184260192E-2</v>
+        <v>-9.7801180184260197</v>
       </c>
       <c r="D16" s="4">
         <v>1.7400761283306081</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -1382,13 +1382,13 @@
         <v>5.49</v>
       </c>
       <c r="C17" s="3">
-        <v>-0.10231982235502397</v>
+        <v>-10.231982235502397</v>
       </c>
       <c r="D17" s="4">
         <v>2.2925764192139835</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
@@ -1396,13 +1396,13 @@
         <v>5.37</v>
       </c>
       <c r="C18" s="3">
-        <v>-3.5869241567059444E-2</v>
+        <v>-3.5869241567059444</v>
       </c>
       <c r="D18" s="4">
         <v>2.897758337889548</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1410,13 +1410,13 @@
         <v>6.07</v>
       </c>
       <c r="C19" s="3">
-        <v>-3.0716505824688767E-2</v>
+        <v>-3.0716505824688767</v>
       </c>
       <c r="D19" s="4">
         <v>3.1676679410158446</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
@@ -1424,13 +1424,13 @@
         <v>6.19</v>
       </c>
       <c r="C20" s="3">
-        <v>-7.3014889201498692E-2</v>
+        <v>-7.3014889201498692</v>
       </c>
       <c r="D20" s="4">
         <v>2.9395753946652183</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
@@ -1438,13 +1438,13 @@
         <v>5.89</v>
       </c>
       <c r="C21" s="3">
-        <v>-8.8972741647788123E-2</v>
+        <v>-8.8972741647788123</v>
       </c>
       <c r="D21" s="4">
         <v>2.5474254742547364</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
@@ -1452,13 +1452,13 @@
         <v>5.97</v>
       </c>
       <c r="C22" s="3">
-        <v>-0.1073001331029991</v>
+        <v>-10.73001331029991</v>
       </c>
       <c r="D22" s="4">
         <v>2.5391680172879618</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
@@ -1466,13 +1466,13 @@
         <v>5.9</v>
       </c>
       <c r="C23" s="3">
-        <v>-0.11036114639900613</v>
+        <v>-11.036114639900612</v>
       </c>
       <c r="D23" s="4">
         <v>3.1909140075716631</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
@@ -1480,13 +1480,13 @@
         <v>5.82</v>
       </c>
       <c r="C24" s="3">
-        <v>-0.10573327282385768</v>
+        <v>-10.573327282385767</v>
       </c>
       <c r="D24" s="4">
         <v>3.6216216216216153</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
@@ -1494,13 +1494,13 @@
         <v>5.5</v>
       </c>
       <c r="C25" s="3">
-        <v>-0.1520579065063051</v>
+        <v>-15.20579065063051</v>
       </c>
       <c r="D25" s="4">
         <v>3.3423180592991852</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -1508,13 +1508,13 @@
         <v>5.43</v>
       </c>
       <c r="C26" s="3">
-        <v>-0.14409222951082246</v>
+        <v>-14.409222951082246</v>
       </c>
       <c r="D26" s="4">
         <v>2.8448738593666039</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
@@ -1522,13 +1522,13 @@
         <v>5.25</v>
       </c>
       <c r="C27" s="3">
-        <v>-0.14171768782392935</v>
+        <v>-14.171768782392935</v>
       </c>
       <c r="D27" s="4">
         <v>3.0530262453133465</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
@@ -1536,13 +1536,13 @@
         <v>5.03</v>
       </c>
       <c r="C28" s="3">
-        <v>-0.12091118869592579</v>
+        <v>-12.091118869592579</v>
       </c>
       <c r="D28" s="4">
         <v>3.2068412613575634</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
@@ -1550,13 +1550,13 @@
         <v>5.01</v>
       </c>
       <c r="C29" s="3">
-        <v>-0.10853358259997252</v>
+        <v>-10.853358259997252</v>
       </c>
       <c r="D29" s="4">
         <v>3.3617929562433209</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
@@ -1564,13 +1564,13 @@
         <v>5.04</v>
       </c>
       <c r="C30" s="3">
-        <v>-0.13647610748964106</v>
+        <v>-13.647610748964107</v>
       </c>
       <c r="D30" s="4">
         <v>2.8692879914984095</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
@@ -1578,13 +1578,13 @@
         <v>4.83</v>
       </c>
       <c r="C31" s="3">
-        <v>-0.14650047167396726</v>
+        <v>-14.650047167396727</v>
       </c>
       <c r="D31" s="4">
         <v>2.5410269984118492</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
@@ -1592,13 +1592,13 @@
         <v>4.91</v>
       </c>
       <c r="C32" s="3">
-        <v>-0.12500610399708509</v>
+        <v>-12.500610399708508</v>
       </c>
       <c r="D32" s="4">
         <v>3.0671602326811271</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
@@ -1606,13 +1606,13 @@
         <v>4.88</v>
       </c>
       <c r="C33" s="3">
-        <v>-0.11553610838646394</v>
+        <v>-11.553610838646394</v>
       </c>
       <c r="D33" s="4">
         <v>3.6469344608879526</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>32</v>
       </c>
@@ -1620,13 +1620,13 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="C34" s="3">
-        <v>-9.1899737089425282E-2</v>
+        <v>-9.189973708942528</v>
       </c>
       <c r="D34" s="4">
         <v>4.7418335089567965</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
@@ -1634,13 +1634,13 @@
         <v>5.27</v>
       </c>
       <c r="C35" s="3">
-        <v>-9.9780314620846536E-2</v>
+        <v>-9.9780314620846529</v>
       </c>
       <c r="D35" s="4">
         <v>4.3501048218029252</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
@@ -1648,13 +1648,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C36" s="3">
-        <v>-0.10298664820336902</v>
+        <v>-10.298664820336901</v>
       </c>
       <c r="D36" s="4">
         <v>3.3385498174230603</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
@@ -1662,13 +1662,13 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="C37" s="3">
-        <v>-4.5972915181753428E-2</v>
+        <v>-4.5972915181753429</v>
       </c>
       <c r="D37" s="4">
         <v>3.3385498174230603</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>36</v>
       </c>
@@ -1676,13 +1676,13 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="C38" s="3">
-        <v>-3.3140101138553042E-2</v>
+        <v>-3.3140101138553044</v>
       </c>
       <c r="D38" s="4">
         <v>4.0187891440501131</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>37</v>
       </c>
@@ -1690,13 +1690,13 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="C39" s="3">
-        <v>-3.5620351798551907E-2</v>
+        <v>-3.5620351798551906</v>
       </c>
       <c r="D39" s="4">
         <v>3.6382536382536386</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>38</v>
       </c>
@@ -1704,13 +1704,13 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="C40" s="3">
-        <v>-3.5922632110486671E-2</v>
+        <v>-3.592263211048667</v>
       </c>
       <c r="D40" s="4">
         <v>3.4179181771103027</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>39</v>
       </c>
@@ -1718,13 +1718,13 @@
         <v>4.12</v>
       </c>
       <c r="C41" s="3">
-        <v>-4.6588153054658134E-3</v>
+        <v>-0.46588153054658132</v>
       </c>
       <c r="D41" s="4">
         <v>3.6138358286009296</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>40</v>
       </c>
@@ -1732,13 +1732,13 @@
         <v>4.04</v>
       </c>
       <c r="C42" s="3">
-        <v>1.1568150756379118E-2</v>
+        <v>1.1568150756379119</v>
       </c>
       <c r="D42" s="4">
         <v>3.9772727272727364</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>41</v>
       </c>
@@ -1746,13 +1746,13 @@
         <v>3.94</v>
       </c>
       <c r="C43" s="3">
-        <v>0.10103372788923309</v>
+        <v>10.103372788923309</v>
       </c>
       <c r="D43" s="4">
         <v>4.1817243159525157</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>42</v>
       </c>
@@ -1760,13 +1760,13 @@
         <v>4.32</v>
       </c>
       <c r="C44" s="3">
-        <v>9.4603760625053615E-2</v>
+        <v>9.460376062505361</v>
       </c>
       <c r="D44" s="4">
         <v>4.1046690610569518</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>43</v>
       </c>
@@ -1774,13 +1774,13 @@
         <v>4.72</v>
       </c>
       <c r="C45" s="3">
-        <v>2.7971997678025155E-2</v>
+        <v>2.7971997678025153</v>
       </c>
       <c r="D45" s="4">
         <v>3.9265680775114822</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
@@ -1788,13 +1788,13 @@
         <v>4.58</v>
       </c>
       <c r="C46" s="3">
-        <v>4.4886070864009905E-2</v>
+        <v>4.4886070864009904</v>
       </c>
       <c r="D46" s="4">
         <v>2.0120724346076457</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>45</v>
       </c>
@@ -1802,13 +1802,13 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="C47" s="3">
-        <v>2.692232269310391E-2</v>
+        <v>2.6922322693103911</v>
       </c>
       <c r="D47" s="4">
         <v>1.4063284781516883</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>46</v>
       </c>
@@ -1816,13 +1816,13 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="C48" s="3">
-        <v>-1.3069086348067565E-3</v>
+        <v>-0.13069086348067566</v>
       </c>
       <c r="D48" s="4">
         <v>1.9687026754164592</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>47</v>
       </c>
@@ -1830,13 +1830,13 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="C49" s="3">
-        <v>-2.3160254015689124E-3</v>
+        <v>-0.23160254015689125</v>
       </c>
       <c r="D49" s="4">
         <v>2.5239777889954569</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>48</v>
       </c>
@@ -1844,13 +1844,13 @@
         <v>4.71</v>
       </c>
       <c r="C50" s="3">
-        <v>-2.285653958325087E-2</v>
+        <v>-2.2856539583250868</v>
       </c>
       <c r="D50" s="4">
         <v>2.0757651781234321</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>49</v>
       </c>
@@ -1858,13 +1858,13 @@
         <v>5.25</v>
       </c>
       <c r="C51" s="3">
-        <v>-1.4878180737744983E-2</v>
+        <v>-1.4878180737744984</v>
       </c>
       <c r="D51" s="4">
         <v>2.4202607823470377</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>50</v>
       </c>
@@ -1872,13 +1872,13 @@
         <v>5.78</v>
       </c>
       <c r="C52" s="3">
-        <v>-2.3112521603069279E-2</v>
+        <v>-2.3112521603069278</v>
       </c>
       <c r="D52" s="4">
         <v>2.7981972959439272</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>51</v>
       </c>
@@ -1886,13 +1886,13 @@
         <v>6.26</v>
       </c>
       <c r="C53" s="3">
-        <v>-8.4114150636359006E-2</v>
+        <v>-8.4114150636359</v>
       </c>
       <c r="D53" s="4">
         <v>2.5929247633283548</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>52</v>
       </c>
@@ -1900,13 +1900,13 @@
         <v>6.23</v>
       </c>
       <c r="C54" s="3">
-        <v>-0.15734092076132439</v>
+        <v>-15.734092076132439</v>
       </c>
       <c r="D54" s="4">
         <v>2.7098857426726202</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>53</v>
       </c>
@@ -1914,13 +1914,13 @@
         <v>6.03</v>
       </c>
       <c r="C55" s="3">
-        <v>-0.24318803475337639</v>
+        <v>-24.318803475337639</v>
       </c>
       <c r="D55" s="4">
         <v>2.6927651139742306</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>54</v>
       </c>
@@ -1928,13 +1928,13 @@
         <v>5.77</v>
       </c>
       <c r="C56" s="3">
-        <v>-0.23285237492009084</v>
+        <v>-23.285237492009085</v>
       </c>
       <c r="D56" s="4">
         <v>2.3178905864958121</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>55</v>
       </c>
@@ -1942,13 +1942,13 @@
         <v>5.22</v>
       </c>
       <c r="C57" s="3">
-        <v>-0.15029815208917166</v>
+        <v>-15.029815208917165</v>
       </c>
       <c r="D57" s="4">
         <v>1.8974484789008781</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>56</v>
       </c>
@@ -1956,13 +1956,13 @@
         <v>5.01</v>
       </c>
       <c r="C58" s="3">
-        <v>-0.1104600866763345</v>
+        <v>-11.046008667633449</v>
       </c>
       <c r="D58" s="4">
         <v>2.8338264299802689</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>57</v>
       </c>
@@ -1970,13 +1970,13 @@
         <v>5.16</v>
       </c>
       <c r="C59" s="3">
-        <v>-0.16021862653987012</v>
+        <v>-16.021862653987011</v>
       </c>
       <c r="D59" s="4">
         <v>3.6106983655274849</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>58</v>
       </c>
@@ -1984,13 +1984,13 @@
         <v>5.41</v>
       </c>
       <c r="C60" s="3">
-        <v>-0.10766244659034524</v>
+        <v>-10.766244659034523</v>
       </c>
       <c r="D60" s="4">
         <v>4.3732673267326749</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>59</v>
       </c>
@@ -1998,13 +1998,13 @@
         <v>5.69</v>
       </c>
       <c r="C61" s="3">
-        <v>-0.11467372631245097</v>
+        <v>-11.467372631245096</v>
       </c>
       <c r="D61" s="4">
         <v>4.1088133924175274</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>60</v>
       </c>
@@ -2012,13 +2012,13 @@
         <v>6</v>
       </c>
       <c r="C62" s="3">
-        <v>-0.12241204672834081</v>
+        <v>-12.241204672834082</v>
       </c>
       <c r="D62" s="4">
         <v>4.2946956551659703</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>61</v>
       </c>
@@ -2026,13 +2026,13 @@
         <v>6.35</v>
       </c>
       <c r="C63" s="3">
-        <v>-0.14700440707112084</v>
+        <v>-14.700440707112083</v>
       </c>
       <c r="D63" s="4">
         <v>4.1429592706119758</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>62</v>
       </c>
@@ -2040,13 +2040,13 @@
         <v>5.93</v>
       </c>
       <c r="C64" s="3">
-        <v>-0.16567878667221683</v>
+        <v>-16.567878667221684</v>
       </c>
       <c r="D64" s="4">
         <v>3.9749035501344432</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>63</v>
       </c>
@@ -2054,13 +2054,13 @@
         <v>5.73</v>
       </c>
       <c r="C65" s="3">
-        <v>-0.16180087341144775</v>
+        <v>-16.180087341144773</v>
       </c>
       <c r="D65" s="4">
         <v>3.9037609759888161</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>64</v>
       </c>
@@ -2068,13 +2068,13 @@
         <v>6.39</v>
       </c>
       <c r="C66" s="3">
-        <v>-0.10708577251203766</v>
+        <v>-10.708577251203765</v>
       </c>
       <c r="D66" s="4">
         <v>4.0884138231239886</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>65</v>
       </c>
@@ -2082,13 +2082,13 @@
         <v>7.18</v>
       </c>
       <c r="C67" s="3">
-        <v>-0.12195836696502477</v>
+        <v>-12.195836696502477</v>
       </c>
       <c r="D67" s="4">
         <v>4.9359661059478581</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>66</v>
       </c>
@@ -2096,13 +2096,13 @@
         <v>7.52</v>
       </c>
       <c r="C68" s="3">
-        <v>-0.10354541039339483</v>
+        <v>-10.354541039339484</v>
       </c>
       <c r="D68" s="4">
         <v>5.4975120783418259</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
@@ -2110,13 +2110,13 @@
         <v>7.87</v>
       </c>
       <c r="C69" s="3">
-        <v>-8.0766750979516896E-2</v>
+        <v>-8.0766750979516893</v>
       </c>
       <c r="D69" s="4">
         <v>5.3080171620912306</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>68</v>
       </c>
@@ -2124,13 +2124,13 @@
         <v>7.57</v>
       </c>
       <c r="C70" s="3">
-        <v>-3.6152219873150017E-2</v>
+        <v>-3.6152219873150018</v>
       </c>
       <c r="D70" s="4">
         <v>4.9533198751360672</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>69</v>
       </c>
@@ -2138,13 +2138,13 @@
         <v>7.94</v>
       </c>
       <c r="C71" s="3">
-        <v>0.1237866162700799</v>
+        <v>12.37866162700799</v>
       </c>
       <c r="D71" s="4">
         <v>3.7310578899565026</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>70</v>
       </c>
@@ -2152,13 +2152,13 @@
         <v>7.73</v>
       </c>
       <c r="C72" s="3">
-        <v>0.13612428889195102</v>
+        <v>13.612428889195103</v>
       </c>
       <c r="D72" s="4">
         <v>1.0999174706166883</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>71</v>
       </c>
@@ -2166,13 +2166,13 @@
         <v>7.67</v>
       </c>
       <c r="C73" s="3">
-        <v>0.13104958081448859</v>
+        <v>13.104958081448858</v>
       </c>
       <c r="D73" s="4">
         <v>-2.2228002553854216E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>72</v>
       </c>
@@ -2180,13 +2180,13 @@
         <v>7.18</v>
       </c>
       <c r="C74" s="3">
-        <v>0.14618119142518582</v>
+        <v>14.618119142518582</v>
       </c>
       <c r="D74" s="4">
         <v>-0.11358601902212988</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>73</v>
       </c>
@@ -2194,13 +2194,13 @@
         <v>6.47</v>
       </c>
       <c r="C75" s="3">
-        <v>0.32436525988590253</v>
+        <v>32.436525988590255</v>
       </c>
       <c r="D75" s="4">
         <v>8.4631406715035152E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>74</v>
       </c>
@@ -2208,13 +2208,13 @@
         <v>6.14</v>
       </c>
       <c r="C76" s="3">
-        <v>0.32612055641421955</v>
+        <v>32.612055641421954</v>
       </c>
       <c r="D76" s="4">
         <v>-0.44647876766238287</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
         <v>75</v>
       </c>
@@ -2222,13 +2222,13 @@
         <v>5.73</v>
       </c>
       <c r="C77" s="3">
-        <v>0.33557391406210774</v>
+        <v>33.557391406210776</v>
       </c>
       <c r="D77" s="4">
         <v>-0.57632442437670206</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
         <v>76</v>
       </c>
@@ -2236,13 +2236,13 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="C78" s="3">
-        <v>0.25949151120185726</v>
+        <v>25.949151120185725</v>
       </c>
       <c r="D78" s="4">
         <v>-1.0157614958551759</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>77</v>
       </c>
@@ -2250,13 +2250,13 @@
         <v>3.81</v>
       </c>
       <c r="C79" s="3">
-        <v>0.18006639849637279</v>
+        <v>18.006639849637278</v>
       </c>
       <c r="D79" s="4">
         <v>-1.2291746182109149</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>78</v>
       </c>
@@ -2264,13 +2264,13 @@
         <v>3.28</v>
       </c>
       <c r="C80" s="3">
-        <v>0.17147321657703696</v>
+        <v>17.147321657703696</v>
       </c>
       <c r="D80" s="4">
         <v>-1.9587610037622785</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
         <v>79</v>
       </c>
@@ -2278,13 +2278,13 @@
         <v>3.13</v>
       </c>
       <c r="C81" s="3">
-        <v>8.774987186058425E-2</v>
+        <v>8.774987186058425</v>
       </c>
       <c r="D81" s="4">
         <v>-1.4838355663267659</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>80</v>
       </c>
@@ -2292,13 +2292,13 @@
         <v>3.21</v>
       </c>
       <c r="C82" s="3">
-        <v>-2.5619653432770426E-2</v>
+        <v>-2.5619653432770426</v>
       </c>
       <c r="D82" s="4">
         <v>-1.3779428628864701</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
         <v>81</v>
       </c>
@@ -2306,13 +2306,13 @@
         <v>2.72</v>
       </c>
       <c r="C83" s="3">
-        <v>-0.1769652058958425</v>
+        <v>-17.696520589584249</v>
       </c>
       <c r="D83" s="4">
         <v>-0.22396829420033565</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
         <v>82</v>
       </c>
@@ -2320,13 +2320,13 @@
         <v>2.37</v>
       </c>
       <c r="C84" s="3">
-        <v>-0.14613735299850567</v>
+        <v>-14.613735299850566</v>
       </c>
       <c r="D84" s="4">
         <v>1.9145871744709282</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
         <v>83</v>
       </c>
@@ -2334,13 +2334,13 @@
         <v>2</v>
       </c>
       <c r="C85" s="3">
-        <v>-0.1236736992134574</v>
+        <v>-12.367369921345741</v>
       </c>
       <c r="D85" s="4">
         <v>2.8141231232083617</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
         <v>84</v>
       </c>
@@ -2348,13 +2348,13 @@
         <v>2.1</v>
       </c>
       <c r="C86" s="3">
-        <v>-0.11648317221625491</v>
+        <v>-11.648317221625492</v>
       </c>
       <c r="D86" s="4">
         <v>2.6211113889767081</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>85</v>
       </c>
@@ -2362,13 +2362,13 @@
         <v>2.09</v>
       </c>
       <c r="C87" s="3">
-        <v>-0.22817294281729425</v>
+        <v>-22.817294281729424</v>
       </c>
       <c r="D87" s="4">
         <v>2.1513363578665254</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>86</v>
       </c>
@@ -2376,13 +2376,13 @@
         <v>1.84</v>
       </c>
       <c r="C88" s="3">
-        <v>-0.22586594691857856</v>
+        <v>-22.586594691857854</v>
       </c>
       <c r="D88" s="4">
         <v>2.2861714393279864</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
         <v>87</v>
       </c>
@@ -2390,13 +2390,13 @@
         <v>1.98</v>
       </c>
       <c r="C89" s="3">
-        <v>-0.19046724053678155</v>
+        <v>-19.046724053678155</v>
       </c>
       <c r="D89" s="4">
         <v>2.206770752530447</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
         <v>88</v>
       </c>
@@ -2404,13 +2404,13 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="C90" s="3">
-        <v>-0.12588328825287706</v>
+        <v>-12.588328825287705</v>
       </c>
       <c r="D90" s="4">
         <v>2.0035489292185784</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
         <v>89</v>
       </c>
@@ -2418,13 +2418,13 @@
         <v>2.25</v>
       </c>
       <c r="C91" s="3">
-        <v>-4.4680956633918911E-2</v>
+        <v>-4.4680956633918907</v>
       </c>
       <c r="D91" s="4">
         <v>1.1215605940686346</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
         <v>90</v>
       </c>
@@ -2432,13 +2432,13 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C92" s="3">
-        <v>-8.77815586678935E-2</v>
+        <v>-8.7781558667893496</v>
       </c>
       <c r="D92" s="4">
         <v>1.3407784804820986</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
         <v>91</v>
       </c>
@@ -2446,13 +2446,13 @@
         <v>2.31</v>
       </c>
       <c r="C93" s="3">
-        <v>-8.9663655888377991E-2</v>
+        <v>-8.9663655888377995</v>
       </c>
       <c r="D93" s="4">
         <v>1.1501775395112481</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
         <v>92</v>
       </c>
@@ -2460,13 +2460,13 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C94" s="3">
-        <v>-0.10552328926107687</v>
+        <v>-10.552328926107688</v>
       </c>
       <c r="D94" s="4">
         <v>1.1183122472331806</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
         <v>93</v>
       </c>
@@ -2474,13 +2474,13 @@
         <v>2.33</v>
       </c>
       <c r="C95" s="3">
-        <v>-1.5942044821293973E-2</v>
+        <v>-1.5942044821293972</v>
       </c>
       <c r="D95" s="4">
         <v>1.1666951489314581</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
         <v>94</v>
       </c>
@@ -2488,13 +2488,13 @@
         <v>2.59</v>
       </c>
       <c r="C96" s="3">
-        <v>-5.5563164863260725E-2</v>
+        <v>-5.5563164863260726</v>
       </c>
       <c r="D96" s="4">
         <v>1.0845447766003455</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
         <v>95</v>
       </c>
@@ -2502,13 +2502,13 @@
         <v>3.17</v>
       </c>
       <c r="C97" s="3">
-        <v>-4.6287836955976012E-2</v>
+        <v>-4.6287836955976012</v>
       </c>
       <c r="D97" s="4">
         <v>1.4377930222179278</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>96</v>
       </c>
@@ -2516,13 +2516,13 @@
         <v>3.4</v>
       </c>
       <c r="C98" s="3">
-        <v>-5.1501167602944119E-2</v>
+        <v>-5.150116760294412</v>
       </c>
       <c r="D98" s="4">
         <v>1.7007834915029849</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
         <v>97</v>
       </c>
@@ -2530,13 +2530,13 @@
         <v>3.17</v>
       </c>
       <c r="C99" s="3">
-        <v>-2.3263978522381212E-2</v>
+        <v>-2.326397852238121</v>
       </c>
       <c r="D99" s="4">
         <v>2.1248981733331447</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>98</v>
       </c>
@@ -2544,13 +2544,13 @@
         <v>3.19</v>
       </c>
       <c r="C100" s="3">
-        <v>-8.8220223033402424E-3</v>
+        <v>-0.88220223033402423</v>
       </c>
       <c r="D100" s="4">
         <v>2.6192415103541169</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
         <v>99</v>
       </c>
@@ -2558,13 +2558,13 @@
         <v>2.84</v>
       </c>
       <c r="C101" s="3">
-        <v>-6.5595591877166959E-2</v>
+        <v>-6.5595591877166957</v>
       </c>
       <c r="D101" s="4">
         <v>3.0772344447868698</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
         <v>100</v>
       </c>
@@ -2572,13 +2572,13 @@
         <v>3.02</v>
       </c>
       <c r="C102" s="3">
-        <v>-8.2683806717138375E-2</v>
+        <v>-8.2683806717138371</v>
       </c>
       <c r="D102" s="4">
         <v>3.4589718808965069</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>101</v>
       </c>
@@ -2586,13 +2586,13 @@
         <v>3.23</v>
       </c>
       <c r="C103" s="3">
-        <v>-7.8484431402082694E-2</v>
+        <v>-7.8484431402082695</v>
       </c>
       <c r="D103" s="4">
         <v>3.5023181506360523</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>102</v>
       </c>
@@ -2600,13 +2600,13 @@
         <v>3.42</v>
       </c>
       <c r="C104" s="3">
-        <v>-6.6952349949569515E-2</v>
+        <v>-6.6952349949569516</v>
       </c>
       <c r="D104" s="4">
         <v>3.5798809769996192</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>103</v>
       </c>
@@ -2614,13 +2614,13 @@
         <v>3.27</v>
       </c>
       <c r="C105" s="3">
-        <v>-2.8316587842991972E-2</v>
+        <v>-2.8316587842991972</v>
       </c>
       <c r="D105" s="4">
         <v>3.754996030708091</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>104</v>
       </c>
@@ -2628,13 +2628,13 @@
         <v>3.73</v>
       </c>
       <c r="C106" s="3">
-        <v>2.0189592013646229E-2</v>
+        <v>2.0189592013646229</v>
       </c>
       <c r="D106" s="4">
         <v>3.8126216928186936</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
         <v>105</v>
       </c>
@@ -2642,13 +2642,13 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C107" s="3">
-        <v>5.2259604707972397E-2</v>
+        <v>5.22596047079724</v>
       </c>
       <c r="D107" s="4">
         <v>3.5222681306640511</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>106</v>
       </c>
@@ -2656,13 +2656,13 @@
         <v>3.96</v>
       </c>
       <c r="C108" s="3">
-        <v>2.7882518504195045E-2</v>
+        <v>2.7882518504195044</v>
       </c>
       <c r="D108" s="4">
         <v>3.451432214581724</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>107</v>
       </c>
@@ -2670,13 +2670,13 @@
         <v>3.73</v>
       </c>
       <c r="C109" s="3">
-        <v>1.9848517545752547E-2</v>
+        <v>1.9848517545752546</v>
       </c>
       <c r="D109" s="4">
         <v>3.0620668384193932</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>108</v>
       </c>
@@ -2684,13 +2684,13 @@
         <v>3.54</v>
       </c>
       <c r="C110" s="3">
-        <v>-1.6635869391068481E-2</v>
+        <v>-1.6635869391068481</v>
       </c>
       <c r="D110" s="4">
         <v>3.0087663379855059</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>109</v>
       </c>
@@ -2698,13 +2698,13 @@
         <v>3.55</v>
       </c>
       <c r="C111" s="3">
-        <v>-5.6347259810554759E-2</v>
+        <v>-5.6347259810554755</v>
       </c>
       <c r="D111" s="4">
         <v>2.89817844234739</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>110</v>
       </c>
@@ -2712,13 +2712,13 @@
         <v>3.4</v>
       </c>
       <c r="C112" s="3">
-        <v>-6.1424406674874352E-2</v>
+        <v>-6.1424406674874348</v>
       </c>
       <c r="D112" s="4">
         <v>2.5828752813320999</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>111</v>
       </c>
@@ -2726,13 +2726,13 @@
         <v>3.43</v>
       </c>
       <c r="C113" s="3">
-        <v>-1.8762078294958875E-2</v>
+        <v>-1.8762078294958875</v>
       </c>
       <c r="D113" s="4">
         <v>2.2731633741348558</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
         <v>112</v>
       </c>
@@ -2740,13 +2740,13 @@
         <v>3.44</v>
       </c>
       <c r="C114" s="3">
-        <v>-1.8705306945390687E-2</v>
+        <v>-1.8705306945390687</v>
       </c>
       <c r="D114" s="4">
         <v>1.7379429374660738</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
         <v>113</v>
       </c>
@@ -2754,13 +2754,13 @@
         <v>3.2</v>
       </c>
       <c r="C115" s="3">
-        <v>7.5468933177022836E-3</v>
+        <v>0.75468933177022834</v>
       </c>
       <c r="D115" s="4">
         <v>1.6538704482976385</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>114</v>
       </c>
@@ -2768,13 +2768,13 @@
         <v>3.03</v>
       </c>
       <c r="C116" s="3">
-        <v>1.8187953626437707E-2</v>
+        <v>1.8187953626437707</v>
       </c>
       <c r="D116" s="4">
         <v>1.4175114798464887</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>115</v>
       </c>
@@ -2782,13 +2782,13 @@
         <v>3.11</v>
       </c>
       <c r="C117" s="3">
-        <v>9.7905627050214692E-3</v>
+        <v>0.97905627050214694</v>
       </c>
       <c r="D117" s="4">
         <v>1.6859349154821242</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>116</v>
       </c>
@@ -2796,13 +2796,13 @@
         <v>3.08</v>
       </c>
       <c r="C118" s="3">
-        <v>-1.8973220404023862E-2</v>
+        <v>-1.8973220404023863</v>
       </c>
       <c r="D118" s="4">
         <v>1.9497168982819624</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>117</v>
       </c>
@@ -2810,13 +2810,13 @@
         <v>3.06</v>
       </c>
       <c r="C119" s="3">
-        <v>-5.1521370948594637E-2</v>
+        <v>-5.152137094859464</v>
       </c>
       <c r="D119" s="4">
         <v>2.1556780595369371</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
         <v>118</v>
       </c>
@@ -2824,13 +2824,13 @@
         <v>2.77</v>
       </c>
       <c r="C120" s="3">
-        <v>-4.9878504428709558E-2</v>
+        <v>-4.9878504428709558</v>
       </c>
       <c r="D120" s="4">
         <v>1.7960197033926213</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
         <v>119</v>
       </c>
@@ -2838,13 +2838,13 @@
         <v>2.44</v>
       </c>
       <c r="C121" s="3">
-        <v>-7.1856936416184986E-2</v>
+        <v>-7.1856936416184984</v>
       </c>
       <c r="D121" s="4">
         <v>1.7595049796895517</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
         <v>120</v>
       </c>
@@ -2852,13 +2852,13 @@
         <v>2</v>
       </c>
       <c r="C122" s="3">
-        <v>-4.5000570246183369E-2</v>
+        <v>-4.5000570246183367</v>
       </c>
       <c r="D122" s="4">
         <v>1.6840617620982914</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
         <v>121</v>
       </c>
@@ -2866,13 +2866,13 @@
         <v>1.83</v>
       </c>
       <c r="C123" s="3">
-        <v>-1.1483049898052668E-3</v>
+        <v>-0.11483049898052668</v>
       </c>
       <c r="D123" s="4">
         <v>2.0181404902574811</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
         <v>122</v>
       </c>
@@ -2880,13 +2880,13 @@
         <v>1.91</v>
       </c>
       <c r="C124" s="3">
-        <v>2.0578748921092089E-2</v>
+        <v>2.0578748921092087</v>
       </c>
       <c r="D124" s="4">
         <v>1.5187472411246259</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
         <v>123</v>
       </c>
@@ -2894,13 +2894,13 @@
         <v>2.02</v>
       </c>
       <c r="C125" s="3">
-        <v>2.8512424597100971E-2</v>
+        <v>2.8512424597100972</v>
       </c>
       <c r="D125" s="4">
         <v>1.1388080475768632</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
         <v>124</v>
       </c>
@@ -2908,13 +2908,13 @@
         <v>2</v>
       </c>
       <c r="C126" s="3">
-        <v>3.7835854594716757E-2</v>
+        <v>3.7835854594716758</v>
       </c>
       <c r="D126" s="4">
         <v>1.3903888279197103</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
         <v>125</v>
       </c>
@@ -2922,13 +2922,13 @@
         <v>2.16</v>
       </c>
       <c r="C127" s="3">
-        <v>5.3003138233303312E-2</v>
+        <v>5.3003138233303311</v>
       </c>
       <c r="D127" s="4">
         <v>1.7157935271568816</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
         <v>126</v>
       </c>
@@ -2936,13 +2936,13 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="C128" s="3">
-        <v>7.0238904398919208E-2</v>
+        <v>7.0238904398919209</v>
       </c>
       <c r="D128" s="4">
         <v>1.8854718054158108</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
         <v>127</v>
       </c>
@@ -2950,13 +2950,13 @@
         <v>2.27</v>
       </c>
       <c r="C129" s="3">
-        <v>4.5723868703527938E-2</v>
+        <v>4.5723868703527941</v>
       </c>
       <c r="D129" s="4">
         <v>1.5388094886002759</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
         <v>128</v>
       </c>
@@ -2964,13 +2964,13 @@
         <v>2.27</v>
       </c>
       <c r="C130" s="3">
-        <v>7.2644366708763147E-2</v>
+        <v>7.2644366708763144</v>
       </c>
       <c r="D130" s="4">
         <v>1.0947341081748048</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
         <v>129</v>
       </c>
@@ -2978,13 +2978,13 @@
         <v>1.84</v>
       </c>
       <c r="C131" s="3">
-        <v>4.782274932134753E-2</v>
+        <v>4.7822749321347526</v>
       </c>
       <c r="D131" s="4">
         <v>0.87679914349113963</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
         <v>130</v>
       </c>
@@ -2992,13 +2992,13 @@
         <v>1.76</v>
       </c>
       <c r="C132" s="3">
-        <v>6.1071389286107114E-2</v>
+        <v>6.1071389286107109</v>
       </c>
       <c r="D132" s="4">
         <v>1.2328701961954427</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
         <v>131</v>
       </c>
@@ -3006,13 +3006,13 @@
         <v>1.94</v>
       </c>
       <c r="C133" s="3">
-        <v>7.3677830479823403E-2</v>
+        <v>7.3677830479823401</v>
       </c>
       <c r="D133" s="4">
         <v>1.5128383667573404</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
         <v>132</v>
       </c>
@@ -3020,13 +3020,13 @@
         <v>2.13</v>
       </c>
       <c r="C134" s="3">
-        <v>9.9030396087463321E-2</v>
+        <v>9.9030396087463313</v>
       </c>
       <c r="D134" s="4">
         <v>1.5577587955749157</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
         <v>133</v>
       </c>
@@ -3034,13 +3034,13 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C135" s="3">
-        <v>0.13430425249132175</v>
+        <v>13.430425249132174</v>
       </c>
       <c r="D135" s="4">
         <v>1.1204746347724857</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
         <v>134</v>
       </c>
@@ -3048,13 +3048,13 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="C136" s="3">
-        <v>0.13759681296180892</v>
+        <v>13.759681296180892</v>
       </c>
       <c r="D136" s="4">
         <v>1.6126949139408049</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="s">
         <v>135</v>
       </c>
@@ -3062,13 +3062,13 @@
         <v>2.72</v>
       </c>
       <c r="C137" s="3">
-        <v>5.3988696732119153E-2</v>
+        <v>5.398869673211915</v>
       </c>
       <c r="D137" s="4">
         <v>2.0151253036061694</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="s">
         <v>136</v>
       </c>
@@ -3076,13 +3076,13 @@
         <v>2.93</v>
       </c>
       <c r="C138" s="3">
-        <v>4.7143797283847121E-2</v>
+        <v>4.7143797283847118</v>
       </c>
       <c r="D138" s="4">
         <v>2.1669476870798192</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="s">
         <v>137</v>
       </c>
@@ -3090,13 +3090,13 @@
         <v>2.79</v>
       </c>
       <c r="C139" s="3">
-        <v>-2.6615242405891573E-3</v>
+        <v>-0.2661524240589157</v>
       </c>
       <c r="D139" s="4">
         <v>2.0589816945944208</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
         <v>138</v>
       </c>
@@ -3104,13 +3104,13 @@
         <v>2.89</v>
       </c>
       <c r="C140" s="3">
-        <v>-2.4836635612124361E-2</v>
+        <v>-2.483663561212436</v>
       </c>
       <c r="D140" s="4">
         <v>1.9742378703306074</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="s">
         <v>139</v>
       </c>
@@ -3118,13 +3118,13 @@
         <v>3.02</v>
       </c>
       <c r="C141" s="3">
-        <v>-2.8569152749383262E-3</v>
+        <v>-0.28569152749383264</v>
       </c>
       <c r="D141" s="4">
         <v>1.7150983482969036</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="s">
         <v>140</v>
       </c>
@@ -3132,13 +3132,13 @@
         <v>2.86</v>
       </c>
       <c r="C142" s="3">
-        <v>3.9295872969565659E-2</v>
+        <v>3.9295872969565657</v>
       </c>
       <c r="D142" s="4">
         <v>1.6840509711232112</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="s">
         <v>141</v>
       </c>
@@ -3146,13 +3146,13 @@
         <v>3.29</v>
       </c>
       <c r="C143" s="3">
-        <v>8.8132083985878351E-2</v>
+        <v>8.813208398587836</v>
       </c>
       <c r="D143" s="4">
         <v>1.6095417021513319</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
         <v>142</v>
       </c>
@@ -3160,13 +3160,13 @@
         <v>3.65</v>
       </c>
       <c r="C144" s="3">
-        <v>0.11985548713483019</v>
+        <v>11.985548713483018</v>
       </c>
       <c r="D144" s="4">
         <v>1.2315249893208071</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
         <v>143</v>
       </c>
@@ -3174,13 +3174,13 @@
         <v>3.66</v>
       </c>
       <c r="C145" s="3">
-        <v>0.24571307234562662</v>
+        <v>24.57130723456266</v>
       </c>
       <c r="D145" s="4">
         <v>0.65312139196231045</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
         <v>144</v>
       </c>
@@ -3188,13 +3188,13 @@
         <v>3.82</v>
       </c>
       <c r="C146" s="3">
-        <v>0.26192829311959603</v>
+        <v>26.192829311959603</v>
       </c>
       <c r="D146" s="4">
         <v>-0.22993097820543201</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
         <v>145</v>
       </c>
@@ -3202,13 +3202,13 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="C147" s="3">
-        <v>0.17479284909130458</v>
+        <v>17.479284909130456</v>
       </c>
       <c r="D147" s="4">
         <v>-8.7031462935203627E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
         <v>146</v>
       </c>
@@ -3216,13 +3216,13 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="C148" s="3">
-        <v>0.30174412348746443</v>
+        <v>30.174412348746444</v>
       </c>
       <c r="D148" s="4">
         <v>-2.2031284423878736E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="s">
         <v>147</v>
       </c>
@@ -3230,13 +3230,13 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="C149" s="3">
-        <v>0.3240953661359896</v>
+        <v>32.409536613598959</v>
       </c>
       <c r="D149" s="4">
         <v>-0.1040309893939057</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
         <v>148</v>
       </c>
@@ -3244,13 +3244,13 @@
         <v>4.41</v>
       </c>
       <c r="C150" s="3">
-        <v>0.24109364206283657</v>
+        <v>24.109364206283658</v>
       </c>
       <c r="D150" s="4">
         <v>3.5033218244286381E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
         <v>149</v>
       </c>
@@ -3258,13 +3258,13 @@
         <v>4.42</v>
       </c>
       <c r="C151" s="3">
-        <v>0.35077795000452761</v>
+        <v>35.07779500045276</v>
       </c>
       <c r="D151" s="4">
         <v>0.17957180975505568</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="s">
         <v>150</v>
       </c>
@@ -3272,13 +3272,13 @@
         <v>4.46</v>
       </c>
       <c r="C152" s="3">
-        <v>0.44687905357037117</v>
+        <v>44.687905357037117</v>
       </c>
       <c r="D152" s="4">
         <v>0.22568611104093567</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
         <v>151</v>
       </c>
@@ -3286,13 +3286,13 @@
         <v>4.74</v>
       </c>
       <c r="C153" s="3">
-        <v>0.58865036719086994</v>
+        <v>58.865036719086994</v>
       </c>
       <c r="D153" s="4">
         <v>0.2413037985344812</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="s">
         <v>152</v>
       </c>
@@ -3300,13 +3300,13 @@
         <v>5.35</v>
       </c>
       <c r="C154" s="3">
-        <v>0.52011809701399025</v>
+        <v>52.011809701399024</v>
       </c>
       <c r="D154" s="4">
         <v>8.8429616341736596E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="s">
         <v>153</v>
       </c>
@@ -3314,13 +3314,13 @@
         <v>5.89</v>
       </c>
       <c r="C155" s="3">
-        <v>0.42886625098796888</v>
+        <v>42.886625098796891</v>
       </c>
       <c r="D155" s="4">
         <v>0.12761656067051227</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="s">
         <v>154</v>
       </c>
@@ -3328,13 +3328,13 @@
         <v>6.39</v>
       </c>
       <c r="C156" s="3">
-        <v>0.42248214508880028</v>
+        <v>42.248214508880025</v>
       </c>
       <c r="D156" s="4">
         <v>0.43631821691850969</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="s">
         <v>155</v>
       </c>
@@ -3342,13 +3342,13 @@
         <v>6.77</v>
       </c>
       <c r="C157" s="3">
-        <v>0.3952463507822277</v>
+        <v>39.524635078222772</v>
       </c>
       <c r="D157" s="4">
         <v>0.638724751536489</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="s">
         <v>156</v>
       </c>
@@ -3356,13 +3356,13 @@
         <v>7.45</v>
       </c>
       <c r="C158" s="3">
-        <v>0.32881879948663068</v>
+        <v>32.88187994866307</v>
       </c>
       <c r="D158" s="4">
         <v>1.2375025026943784</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="9" t="s">
         <v>157</v>
       </c>
@@ -3370,13 +3370,13 @@
         <v>7.59</v>
       </c>
       <c r="C159" s="3">
-        <v>0.43497052053042007</v>
+        <v>43.497052053042005</v>
       </c>
       <c r="D159" s="4">
         <v>0.84727757901267076</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="9" t="s">
         <v>158</v>
       </c>
@@ -3384,13 +3384,13 @@
         <v>7.98</v>
       </c>
       <c r="C160" s="3">
-        <v>0.19328428867714684</v>
+        <v>19.328428867714685</v>
       </c>
       <c r="D160" s="4">
         <v>0.89161609655219742</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="s">
         <v>159</v>
       </c>
@@ -3398,13 +3398,13 @@
         <v>7.93</v>
       </c>
       <c r="C161" s="3">
-        <v>0.17639356601576753</v>
+        <v>17.639356601576754</v>
       </c>
       <c r="D161" s="4">
         <v>1.1726257503534734</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="9" t="s">
         <v>160</v>
       </c>
@@ -3412,13 +3412,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C162" s="3">
-        <v>0.24872671574269004</v>
+        <v>24.872671574269003</v>
       </c>
       <c r="D162" s="4">
         <v>1.0784764621246252</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="9" t="s">
         <v>161</v>
       </c>
@@ -3426,13 +3426,13 @@
         <v>8.6</v>
       </c>
       <c r="C163" s="3">
-        <v>0.18430070467800527</v>
+        <v>18.430070467800526</v>
       </c>
       <c r="D163" s="4">
         <v>1.0792865347959444</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
         <v>162</v>
       </c>
@@ -3440,13 +3440,13 @@
         <v>8.9700000000000006</v>
       </c>
       <c r="C164" s="3">
-        <v>8.7370731344394159E-2</v>
+        <v>8.7370731344394166</v>
       </c>
       <c r="D164" s="4">
         <v>0.86836334305183605</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
         <v>163</v>
       </c>
@@ -3454,13 +3454,13 @@
         <v>8.1</v>
       </c>
       <c r="C165" s="3">
-        <v>-2.4957091903778535E-2</v>
+        <v>-2.4957091903778537</v>
       </c>
       <c r="D165" s="4">
         <v>1.0553158595656909</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
         <v>164</v>
       </c>
@@ -3468,13 +3468,13 @@
         <v>7.27</v>
       </c>
       <c r="C166" s="3">
-        <v>-1.9765283140813644E-2</v>
+        <v>-1.9765283140813643</v>
       </c>
       <c r="D166" s="4">
         <v>1.5486446201652213</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="s">
         <v>165</v>
       </c>
@@ -3482,13 +3482,13 @@
         <v>6.48</v>
       </c>
       <c r="C167" s="3">
-        <v>-4.4456736629687613E-3</v>
+        <v>-0.44456736629687615</v>
       </c>
       <c r="D167" s="4">
         <v>1.6859249662436471</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
         <v>166</v>
       </c>
@@ -3496,13 +3496,13 @@
         <v>5.96</v>
       </c>
       <c r="C168" s="3">
-        <v>8.7497518897055784E-3</v>
+        <v>0.87497518897055782</v>
       </c>
       <c r="D168" s="4">
         <v>1.6843334719788983</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="s">
         <v>167</v>
       </c>
@@ -3510,13 +3510,13 @@
         <v>5.75</v>
       </c>
       <c r="C169" s="3">
-        <v>-0.11663885578069132</v>
+        <v>-11.663885578069131</v>
       </c>
       <c r="D169" s="4">
         <v>2.0507989115119822</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="9" t="s">
         <v>168</v>
       </c>
@@ -3524,13 +3524,13 @@
         <v>5.47</v>
       </c>
       <c r="C170" s="3">
-        <v>-9.4038034875073673E-2</v>
+        <v>-9.4038034875073677</v>
       </c>
       <c r="D170" s="4">
         <v>2.5103933482571188</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="9" t="s">
         <v>169</v>
       </c>
@@ -3538,13 +3538,13 @@
         <v>5.18</v>
       </c>
       <c r="C171" s="3">
-        <v>-0.15900546069880531</v>
+        <v>-15.90054606988053</v>
       </c>
       <c r="D171" s="4">
         <v>2.8103616813294181</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="9" t="s">
         <v>170</v>
       </c>
@@ -3552,13 +3552,13 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="C172" s="3">
-        <v>-5.61154930020938E-2</v>
+        <v>-5.6115493002093801</v>
       </c>
       <c r="D172" s="4">
         <v>2.4411962365591329</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="9" t="s">
         <v>171</v>
       </c>
@@ -3566,13 +3566,13 @@
         <v>4.66</v>
       </c>
       <c r="C173" s="3">
-        <v>-4.273222295536494E-2</v>
+        <v>-4.2732222955364936</v>
       </c>
       <c r="D173" s="4">
         <v>2.176223471915387</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="9" t="s">
         <v>172</v>
       </c>
@@ -3580,13 +3580,13 @@
         <v>4.37</v>
       </c>
       <c r="C174" s="3">
-        <v>-2.1827724192478134E-2</v>
+        <v>-2.1827724192478133</v>
       </c>
       <c r="D174" s="4">
         <v>1.8563431667619825</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="s">
         <v>173</v>
       </c>
@@ -3594,13 +3594,13 @@
         <v>3.99</v>
       </c>
       <c r="C175" s="3">
-        <v>-2.6148078101276003E-2</v>
+        <v>-2.6148078101276004</v>
       </c>
       <c r="D175" s="4">
         <v>1.640565809959122</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="s">
         <v>174</v>
       </c>
@@ -3608,13 +3608,13 @@
         <v>3.4</v>
       </c>
       <c r="C176" s="3">
-        <v>3.3009815023246028E-2</v>
+        <v>3.300981502324603</v>
       </c>
       <c r="D176" s="4">
         <v>1.7251073506565968</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="s">
         <v>175</v>
       </c>
@@ -3622,13 +3622,13 @@
         <v>3.87</v>
       </c>
       <c r="C177" s="3">
-        <v>1.9895691157814359E-2</v>
+        <v>1.9895691157814359</v>
       </c>
       <c r="D177" s="4">
         <v>1.9281215572969739</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="s">
         <v>176</v>
       </c>
@@ -3636,13 +3636,13 @@
         <v>3.97</v>
       </c>
       <c r="C178" s="3">
-        <v>-2.2427800111012083E-2</v>
+        <v>-2.2427800111012082</v>
       </c>
       <c r="D178" s="4">
         <v>2.1805652303711875</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="9" t="s">
         <v>177</v>
       </c>
@@ -3650,13 +3650,13 @@
         <v>4.05</v>
       </c>
       <c r="C179" s="3">
-        <v>5.6179197234255277E-3</v>
+        <v>0.56179197234255274</v>
       </c>
       <c r="D179" s="4">
         <v>2.020757753132481</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="9" t="s">
         <v>178</v>
       </c>
@@ -3664,13 +3664,13 @@
         <v>4.12</v>
       </c>
       <c r="C180" s="3">
-        <v>-2.6908635794743455E-2</v>
+        <v>-2.6908635794743456</v>
       </c>
       <c r="D180" s="4">
         <v>2.1724938642955638</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="9" t="s">
         <v>179</v>
       </c>
@@ -3678,13 +3678,13 @@
         <v>4.09</v>
       </c>
       <c r="C181" s="3">
-        <v>1.1640850581536626E-2</v>
+        <v>1.1640850581536626</v>
       </c>
       <c r="D181" s="4">
         <v>2.1299307195522554</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="9" t="s">
         <v>180</v>
       </c>
@@ -3692,13 +3692,13 @@
         <v>3.68</v>
       </c>
       <c r="C182" s="3">
-        <v>-2.7282388043433803E-2</v>
+        <v>-2.7282388043433805</v>
       </c>
       <c r="D182" s="4">
         <v>2.103703338833748</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="9" t="s">
         <v>181</v>
       </c>
@@ -3706,13 +3706,13 @@
         <v>3.37</v>
       </c>
       <c r="C183" s="3">
-        <v>9.8164344199411693E-3</v>
+        <v>0.98164344199411691</v>
       </c>
       <c r="D183" s="4">
         <v>2.2265845921821565</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="9" t="s">
         <v>182</v>
       </c>
@@ -3720,13 +3720,13 @@
         <v>3.14</v>
       </c>
       <c r="C184" s="3">
-        <v>-5.069502590293315E-2</v>
+        <v>-5.0695025902933146</v>
       </c>
       <c r="D184" s="4">
         <v>2.3325898348449283</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="9" t="s">
         <v>183</v>
       </c>
@@ -3734,13 +3734,13 @@
         <v>3.13</v>
       </c>
       <c r="C185" s="3">
-        <v>-5.820960470661956E-2</v>
+        <v>-5.820960470661956</v>
       </c>
       <c r="D185" s="4">
         <v>2.4378258181028833</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="9" t="s">
         <v>184</v>
       </c>
@@ -3748,13 +3748,13 @@
         <v>3.16</v>
       </c>
       <c r="C186" s="3">
-        <v>-3.2425505963291704E-2</v>
+        <v>-3.2425505963291705</v>
       </c>
       <c r="D186" s="4">
         <v>2.7765938263307182</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="9" t="s">
         <v>185</v>
       </c>
@@ -3762,13 +3762,13 @@
         <v>3.2</v>
       </c>
       <c r="C187" s="3">
-        <v>-2.2213864432857441E-2</v>
+        <v>-2.221386443285744</v>
       </c>
       <c r="D187" s="4">
         <v>2.8485069400359531</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="9" t="s">
         <v>186</v>
       </c>
@@ -3776,13 +3776,13 @@
         <v>3.12</v>
       </c>
       <c r="C188" s="3">
-        <v>-5.2279140007153405E-2</v>
+        <v>-5.2279140007153408</v>
       </c>
       <c r="D188" s="4">
         <v>2.8987524719234585</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="9" t="s">
         <v>187</v>
       </c>
@@ -3790,13 +3790,13 @@
         <v>3.1</v>
       </c>
       <c r="C189" s="3">
-        <v>1.2175800764526987E-2</v>
+        <v>1.2175800764526987</v>
       </c>
       <c r="D189" s="4">
         <v>2.6779996981846224</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="9" t="s">
         <v>188</v>
       </c>
@@ -3804,13 +3804,13 @@
         <v>3.23</v>
       </c>
       <c r="C190" s="3">
-        <v>4.1318247200600199E-2</v>
+        <v>4.1318247200600196</v>
       </c>
       <c r="D190" s="4">
         <v>2.3551849372045375</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="9" t="s">
         <v>189</v>
       </c>
@@ -3818,13 +3818,13 @@
         <v>3.33</v>
       </c>
       <c r="C191" s="3">
-        <v>5.3454067972919975E-2</v>
+        <v>5.3454067972919974</v>
       </c>
       <c r="D191" s="4">
         <v>2.5285249730360908</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="9" t="s">
         <v>190</v>
       </c>
@@ -3832,13 +3832,13 @@
         <v>3.27</v>
       </c>
       <c r="C192" s="3">
-        <v>5.9004872874332884E-2</v>
+        <v>5.9004872874332888</v>
       </c>
       <c r="D192" s="4">
         <v>2.1728053574028316</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="9" t="s">
         <v>191</v>
       </c>
@@ -3846,13 +3846,13 @@
         <v>3.18</v>
       </c>
       <c r="C193" s="3">
-        <v>6.5763720086560173E-2</v>
+        <v>6.5763720086560173</v>
       </c>
       <c r="D193" s="4">
         <v>1.9152155929057044</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="9" t="s">
         <v>192</v>
       </c>
@@ -3860,13 +3860,13 @@
         <v>3.15</v>
       </c>
       <c r="C194" s="3">
-        <v>0.10062117890933017</v>
+        <v>10.062117890933017</v>
       </c>
       <c r="D194" s="4">
         <v>1.4983336214486453</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="9" t="s">
         <v>193</v>
       </c>
@@ -3874,13 +3874,13 @@
         <v>3.01</v>
       </c>
       <c r="C195" s="3">
-        <v>8.9605945182489072E-2</v>
+        <v>8.9605945182489073</v>
       </c>
       <c r="D195" s="4">
         <v>1.4817249908795329</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="9" t="s">
         <v>194</v>
       </c>
@@ -3888,13 +3888,13 @@
         <v>3.21</v>
       </c>
       <c r="C196" s="3">
-        <v>0.10494911728325644</v>
+        <v>10.494911728325643</v>
       </c>
       <c r="D196" s="4">
         <v>1.8799507975366745</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="9" t="s">
         <v>195</v>
       </c>
@@ -3902,13 +3902,13 @@
         <v>3.25</v>
       </c>
       <c r="C197" s="3">
-        <v>0.1493268868238373</v>
+        <v>14.932688682383729</v>
       </c>
       <c r="D197" s="4">
         <v>2.0056287128317161</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="9" t="s">
         <v>196</v>
       </c>
@@ -3916,13 +3916,13 @@
         <v>3.31</v>
       </c>
       <c r="C198" s="3">
-        <v>0.16327260494679616</v>
+        <v>16.327260494679617</v>
       </c>
       <c r="D198" s="4">
         <v>1.8127514664305993</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="9" t="s">
         <v>197</v>
       </c>
@@ -3930,13 +3930,13 @@
         <v>3.43</v>
       </c>
       <c r="C199" s="3">
-        <v>0.14368937470714516</v>
+        <v>14.368937470714515</v>
       </c>
       <c r="D199" s="4">
         <v>1.6896439124236395</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="9" t="s">
         <v>198</v>
       </c>
@@ -3944,13 +3944,13 @@
         <v>3.79</v>
       </c>
       <c r="C200" s="3">
-        <v>0.11483733445154982</v>
+        <v>11.483733445154982</v>
       </c>
       <c r="D200" s="4">
         <v>1.821162408534037</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="9" t="s">
         <v>199</v>
       </c>
@@ -3958,13 +3958,13 @@
         <v>3.75</v>
       </c>
       <c r="C201" s="3">
-        <v>0.14873811886793714</v>
+        <v>14.873811886793714</v>
       </c>
       <c r="D201" s="4">
         <v>1.7596892142570491</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="9" t="s">
         <v>200</v>
       </c>
@@ -3972,13 +3972,13 @@
         <v>3.82</v>
       </c>
       <c r="C202" s="3">
-        <v>0.10908610234464067</v>
+        <v>10.908610234464067</v>
       </c>
       <c r="D202" s="4">
         <v>1.7273300322313359</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="9" t="s">
         <v>201</v>
       </c>
@@ -3986,13 +3986,13 @@
         <v>3.86</v>
       </c>
       <c r="C203" s="3">
-        <v>0.11094347930250772</v>
+        <v>11.094347930250773</v>
       </c>
       <c r="D203" s="4">
         <v>1.7570848921546187</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="9" t="s">
         <v>202</v>
       </c>
@@ -4000,13 +4000,13 @@
         <v>3.84</v>
       </c>
       <c r="C204" s="3">
-        <v>8.074936613766559E-2</v>
+        <v>8.0749366137665586</v>
       </c>
       <c r="D204" s="4">
         <v>2.0308164824247892</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="9" t="s">
         <v>203</v>
       </c>
@@ -4014,13 +4014,13 @@
         <v>3.8</v>
       </c>
       <c r="C205" s="3">
-        <v>5.5686262240715753E-2</v>
+        <v>5.5686262240715756</v>
       </c>
       <c r="D205" s="4">
         <v>2.2617213948865733</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="9" t="s">
         <v>204</v>
       </c>
@@ -4028,13 +4028,13 @@
         <v>3.62</v>
       </c>
       <c r="C206" s="3">
-        <v>4.3143655232532288E-2</v>
+        <v>4.3143655232532288</v>
       </c>
       <c r="D206" s="4">
         <v>2.4604903552897444</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="9" t="s">
         <v>205</v>
       </c>
@@ -4042,13 +4042,13 @@
         <v>3.72</v>
       </c>
       <c r="C207" s="3">
-        <v>7.06817483131396E-2</v>
+        <v>7.0681748313139598</v>
       </c>
       <c r="D207" s="4">
         <v>2.319710826238969</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="9" t="s">
         <v>206</v>
       </c>
@@ -4056,13 +4056,13 @@
         <v>3.86</v>
       </c>
       <c r="C208" s="3">
-        <v>0.25362387976160944</v>
+        <v>25.362387976160942</v>
       </c>
       <c r="D208" s="4">
         <v>1.530638329669302</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="9" t="s">
         <v>207</v>
       </c>
@@ -4070,13 +4070,13 @@
         <v>3.51</v>
       </c>
       <c r="C209" s="3">
-        <v>0.24085330554590709</v>
+        <v>24.085330554590708</v>
       </c>
       <c r="D209" s="4">
         <v>0.36486481190454068</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="9" t="s">
         <v>208</v>
       </c>
@@ -4084,13 +4084,13 @@
         <v>2.85</v>
       </c>
       <c r="C210" s="3">
-        <v>0.20171134259118337</v>
+        <v>20.171134259118336</v>
       </c>
       <c r="D210" s="4">
         <v>0.24243611083912656</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="9" t="s">
         <v>209</v>
       </c>
@@ -4098,13 +4098,13 @@
         <v>2.19</v>
       </c>
       <c r="C211" s="3">
-        <v>0.14903537469043332</v>
+        <v>14.903537469043332</v>
       </c>
       <c r="D211" s="4">
         <v>0.72681419637297573</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="9" t="s">
         <v>210</v>
       </c>
@@ -4112,13 +4112,13 @@
         <v>1.97</v>
       </c>
       <c r="C212" s="3">
-        <v>0.14038986562518607</v>
+        <v>14.038986562518607</v>
       </c>
       <c r="D212" s="4">
         <v>1.0328253223915596</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="9" t="s">
         <v>211</v>
       </c>
@@ -4126,13 +4126,13 @@
         <v>1.88</v>
       </c>
       <c r="C213" s="3">
-        <v>9.6797293340330021E-2</v>
+        <v>9.6797293340330022</v>
       </c>
       <c r="D213" s="4">
         <v>1.3275873510318998</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="9" t="s">
         <v>212</v>
       </c>
@@ -4140,13 +4140,13 @@
         <v>1.97</v>
       </c>
       <c r="C214" s="3">
-        <v>0.10155982301148635</v>
+        <v>10.155982301148635</v>
       </c>
       <c r="D214" s="4">
         <v>1.4006453724921644</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="9" t="s">
         <v>213</v>
       </c>
@@ -4154,13 +4154,13 @@
         <v>1.75</v>
       </c>
       <c r="C215" s="3">
-        <v>0.12010339622201631</v>
+        <v>12.010339622201631</v>
       </c>
       <c r="D215" s="4">
         <v>1.1841977419793508</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="9" t="s">
         <v>214</v>
       </c>
@@ -4168,13 +4168,13 @@
         <v>1.49</v>
       </c>
       <c r="C216" s="3">
-        <v>5.4242079318324581E-2</v>
+        <v>5.4242079318324583</v>
       </c>
       <c r="D216" s="4">
         <v>1.1377566062035442</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="9" t="s">
         <v>215</v>
       </c>
@@ -4182,13 +4182,13 @@
         <v>1.61</v>
       </c>
       <c r="C217" s="3">
-        <v>1.5612173227553008E-2</v>
+        <v>1.5612173227553008</v>
       </c>
       <c r="D217" s="4">
         <v>1.2781544394667625</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="9" t="s">
         <v>216</v>
       </c>
@@ -4196,13 +4196,13 @@
         <v>1.6</v>
       </c>
       <c r="C218" s="3">
-        <v>5.8231137326424452E-2</v>
+        <v>5.8231137326424456</v>
       </c>
       <c r="D218" s="4">
         <v>1.3599709295582887</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="9" t="s">
         <v>217</v>
       </c>
@@ -4210,13 +4210,13 @@
         <v>1.56</v>
       </c>
       <c r="C219" s="3">
-        <v>4.0659623655754873E-2</v>
+        <v>4.0659623655754871</v>
       </c>
       <c r="D219" s="4">
         <v>1.6752442984166445</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="9" t="s">
         <v>218</v>
       </c>
@@ -4224,13 +4224,13 @@
         <v>1.51</v>
       </c>
       <c r="C220" s="3">
-        <v>-9.3005438973901011E-2</v>
+        <v>-9.3005438973901011</v>
       </c>
       <c r="D220" s="4">
         <v>2.6583773943020934</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="9" t="s">
         <v>219</v>
       </c>
@@ -4238,13 +4238,13 @@
         <v>1.95</v>
       </c>
       <c r="C221" s="3">
-        <v>-4.9950624771591033E-2</v>
+        <v>-4.9950624771591032</v>
       </c>
       <c r="D221" s="4">
         <v>4.1519910657805266</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="9" t="s">
         <v>220</v>
       </c>
@@ -4252,13 +4252,13 @@
         <v>3.3</v>
       </c>
       <c r="C222" s="3">
-        <v>-6.7113498944979297E-2</v>
+        <v>-6.7113498944979293</v>
       </c>
       <c r="D222" s="4">
         <v>4.9444409714625079</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="9" t="s">
         <v>221</v>
       </c>
@@ -4266,13 +4266,13 @@
         <v>3.63</v>
       </c>
       <c r="C223" s="3">
-        <v>-3.5158256056836507E-2</v>
+        <v>-3.5158256056836508</v>
       </c>
       <c r="D223" s="4">
         <v>5.3410155627349676</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="9" t="s">
         <v>222</v>
       </c>
@@ -4280,13 +4280,13 @@
         <v>3.97</v>
       </c>
       <c r="C224" s="3">
-        <v>4.3386601140118074E-2</v>
+        <v>4.3386601140118071</v>
       </c>
       <c r="D224" s="4">
         <v>5.2761049419245616</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="9" t="s">
         <v>223</v>
       </c>
@@ -4294,13 +4294,13 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C225" s="3">
-        <v>1.2449942508227247E-2</v>
+        <v>1.2449942508227247</v>
       </c>
       <c r="D225" s="4">
         <v>5.2053316896525166</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="9" t="s">
         <v>224</v>
       </c>
@@ -4308,13 +4308,13 @@
         <v>4.51</v>
       </c>
       <c r="C226" s="3">
-        <v>3.6199621314579371E-2</v>
+        <v>3.6199621314579371</v>
       </c>
       <c r="D226" s="4">
         <v>5.389907375379531</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="9" t="s">
         <v>225</v>
       </c>
@@ -4322,13 +4322,13 @@
         <v>4.58</v>
       </c>
       <c r="C227" s="3">
-        <v>-2.297331401111986E-2</v>
+        <v>-2.2973314011119861</v>
       </c>
       <c r="D227" s="4">
         <v>6.2369407571288109</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="9" t="s">
         <v>226</v>
       </c>
@@ -4336,13 +4336,13 @@
         <v>5.26</v>
       </c>
       <c r="C228" s="3">
-        <v>6.8292146870149423E-2</v>
+        <v>6.8292146870149422</v>
       </c>
       <c r="D228" s="4">
         <v>6.8283720912392933</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="9" t="s">
         <v>227</v>
       </c>
@@ -4350,13 +4350,13 @@
         <v>5.62</v>
       </c>
       <c r="C229" s="3">
-        <v>0.1486561014540542</v>
+        <v>14.865610145405419</v>
       </c>
       <c r="D229" s="4">
         <v>7.0965423376305434</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="9" t="s">
         <v>228</v>
       </c>
@@ -4364,13 +4364,13 @@
         <v>6.94</v>
       </c>
       <c r="C230" s="5">
-        <v>0.15098738817670382</v>
+        <v>15.098738817670382</v>
       </c>
       <c r="D230" s="4">
         <v>7.5259344012204439</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="9" t="s">
         <v>229</v>
       </c>
@@ -4378,13 +4378,13 @@
         <v>8.01</v>
       </c>
       <c r="C231" s="5">
-        <v>0.120410165972153</v>
+        <v>12.0410165972153</v>
       </c>
       <c r="D231" s="4">
         <v>7.9120244848981987</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="9" t="s">
         <v>230</v>
       </c>
@@ -4392,13 +4392,13 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="C232" s="7">
-        <v>6.3085615193130565E-2</v>
+        <v>6.3085615193130566</v>
       </c>
       <c r="D232" s="4">
         <v>8.5575863682327924</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="9" t="s">
         <v>231</v>
       </c>
@@ -4406,13 +4406,13 @@
         <v>9.23</v>
       </c>
       <c r="C233" s="7">
-        <v>1.9596288627168643E-2</v>
+        <v>1.9596288627168643</v>
       </c>
       <c r="D233" s="4">
         <v>8.2241392884859952</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="9" t="s">
         <v>232</v>
       </c>
@@ -4420,13 +4420,13 @@
         <v>9.0591694230062476</v>
       </c>
       <c r="C234" s="7">
-        <v>0.11613048625517253</v>
+        <v>11.613048625517253</v>
       </c>
       <c r="D234" s="4">
         <v>8.5164129427138597</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="9" t="s">
         <v>233</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>9.680088251516823</v>
       </c>
       <c r="C235" s="3">
-        <v>9.7429137180710584E-2</v>
+        <v>9.7429137180710583</v>
       </c>
       <c r="D235" s="4">
         <v>9.1</v>
@@ -4447,15 +4447,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100286CFA6F79C56643B786AEC915B2EA12" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e23ce1a85d888b222cd539ea43be8d60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4abd4d58-7cbe-46fe-9038-cc2fddbd6d34" xmlns:ns4="fffff475-2660-4c6d-ad64-750275f98d63" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d58aaec173f3331bc31fdb0dd84bd2b" ns3:_="" ns4:_="">
     <xsd:import namespace="4abd4d58-7cbe-46fe-9038-cc2fddbd6d34"/>
@@ -4696,6 +4687,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4705,14 +4705,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00CA31C5-21C2-4635-836C-8F324DA5180A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6DB1765-6E75-4828-83A8-6969DAF31640}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4731,19 +4723,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00CA31C5-21C2-4635-836C-8F324DA5180A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20C4322-94BA-49AB-89D1-8ABE2C4C06DA}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fffff475-2660-4c6d-ad64-750275f98d63"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="4abd4d58-7cbe-46fe-9038-cc2fddbd6d34"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fffff475-2660-4c6d-ad64-750275f98d63"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>